--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390798032283783</v>
+        <v>0.03740179538726807</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4066632986068726</v>
+        <v>0.06732750684022903</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4091475307941437</v>
+        <v>0.1733883768320084</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3751303553581238</v>
+        <v>0.219212532043457</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4202941954135895</v>
+        <v>0.3023117780685425</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3149590790271759</v>
+        <v>0.2219445705413818</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3564987778663635</v>
+        <v>0.2226223349571228</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4171595573425293</v>
+        <v>0.2238942980766296</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5449289083480835</v>
+        <v>0.2344710528850555</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2967650294303894</v>
+        <v>0.2768660187721252</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3352613747119904</v>
+        <v>0.2414791435003281</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2798156440258026</v>
+        <v>0.8291746973991394</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3845088481903076</v>
+        <v>0.7611868381500244</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3880923986434937</v>
+        <v>0.4734636843204498</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3493001461029053</v>
+        <v>0.5814279913902283</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2163050025701523</v>
+        <v>0.5565640330314636</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1730456948280334</v>
+        <v>0.673491895198822</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2664279043674469</v>
+        <v>0.7300105094909668</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2983063459396362</v>
+        <v>0.761567234992981</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1068426072597504</v>
+        <v>0.7357330322265625</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.189852237701416</v>
+        <v>0.155007004737854</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2118658572435379</v>
+        <v>0.2097953408956528</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1499665230512619</v>
+        <v>0.2624866962432861</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3991629183292389</v>
+        <v>0.1787820160388947</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3862620890140533</v>
+        <v>0.1612567454576492</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08883430063724518</v>
+        <v>0.1185626089572906</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1182132363319397</v>
+        <v>0.1535468548536301</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09726524353027344</v>
+        <v>0.2845580279827118</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1545681059360504</v>
+        <v>0.2654629349708557</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.14706751704216</v>
+        <v>0.4568220973014832</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1616777181625366</v>
+        <v>0.1574608236551285</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1386818587779999</v>
+        <v>0.1929748058319092</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1382753252983093</v>
+        <v>0.2399800419807434</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3533863127231598</v>
+        <v>0.2418152540922165</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5462349057197571</v>
+        <v>0.2979227900505066</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5450731515884399</v>
+        <v>0.28391432762146</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4308854937553406</v>
+        <v>0.1757860332727432</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4114311039447784</v>
+        <v>0.18007792532444</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04404009506106377</v>
+        <v>0.2688935101032257</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05009771510958672</v>
+        <v>0.2545669376850128</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07266893237829208</v>
+        <v>0.231383889913559</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2207132279872894</v>
+        <v>0.2694438695907593</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1920698434114456</v>
+        <v>0.2819192409515381</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2092478722333908</v>
+        <v>0.3138355314731598</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.421056866645813</v>
+        <v>0.2538057863712311</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1174516081809998</v>
+        <v>0.2508979439735413</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4617985785007477</v>
+        <v>0.2136723250150681</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2262359857559204</v>
+        <v>0.2248934656381607</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3033774495124817</v>
+        <v>0.2798483967781067</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2612048089504242</v>
+        <v>0.06069249659776688</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1510278284549713</v>
+        <v>0.1948908269405365</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2208913266658783</v>
+        <v>0.08063583076000214</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4369424879550934</v>
+        <v>0.1641909182071686</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2706577777862549</v>
+        <v>0.1716140359640121</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1466266810894012</v>
+        <v>0.2441223114728928</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1267678886651993</v>
+        <v>0.2852634489536285</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1903284788131714</v>
+        <v>0.3340131640434265</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2381140887737274</v>
+        <v>0.3426173031330109</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2408918887376785</v>
+        <v>0.3651270270347595</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2745383381843567</v>
+        <v>0.2031812816858292</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3394107222557068</v>
+        <v>0.07775274664163589</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.250464141368866</v>
+        <v>0.3169300854206085</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2346682250499725</v>
+        <v>0.2735670208930969</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1878220587968826</v>
+        <v>0.3010741770267487</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1308829039335251</v>
+        <v>0.2732953131198883</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1599474996328354</v>
+        <v>0.307756245136261</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1496067643165588</v>
+        <v>0.3059059977531433</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1221572086215019</v>
+        <v>0.2778838276863098</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1022640317678452</v>
+        <v>0.1928674429655075</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1563245803117752</v>
+        <v>0.1129146218299866</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1477359682321548</v>
+        <v>0.0458541102707386</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1915421187877655</v>
+        <v>0.06793250888586044</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1433338820934296</v>
+        <v>0.1087553575634956</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1267577558755875</v>
+        <v>0.09613728523254395</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1264819651842117</v>
+        <v>0.00826827809214592</v>
       </c>
     </row>
     <row r="77">
@@ -1283,249 +1283,249 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09966044872999191</v>
+        <v>0.02065853215754032</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1437308192253113</v>
+        <v>0.02163713797926903</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3197143077850342</v>
+        <v>0.02180598676204681</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3914886116981506</v>
+        <v>0.0236425343900919</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3297023773193359</v>
+        <v>0.1082879602909088</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3321026265621185</v>
+        <v>0.1412556320428848</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.43039271235466</v>
+        <v>0.08045270293951035</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5366486310958862</v>
+        <v>0.09730981290340424</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6462047100067139</v>
+        <v>0.1532399356365204</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.58656907081604</v>
+        <v>0.1408459097146988</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3119654357433319</v>
+        <v>0.1111524626612663</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2656081318855286</v>
+        <v>0.006481354124844074</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2879518568515778</v>
+        <v>0.5975919365882874</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.07585597038269043</v>
+        <v>0.4511335492134094</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.03903056308627129</v>
+        <v>0.3454401791095734</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.05544295161962509</v>
+        <v>0.1559191644191742</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.05545072630047798</v>
+        <v>0.1261289268732071</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.06663680076599121</v>
+        <v>0.1047757193446159</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.03400510922074318</v>
+        <v>0.1135327965021133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09178905189037323</v>
+        <v>0.1201462596654892</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2539469003677368</v>
+        <v>0.1363989412784576</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1436626762151718</v>
+        <v>0.1290682405233383</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1757823675870895</v>
+        <v>0.1897276043891907</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2890967726707458</v>
+        <v>0.03656404837965965</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2416725754737854</v>
+        <v>0.03896018117666245</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.27878537774086</v>
+        <v>0.01419510878622532</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2301444262266159</v>
+        <v>0.01551678963005543</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4798509180545807</v>
+        <v>0.02480655536055565</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1322258561849594</v>
+        <v>0.09624575078487396</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3708799183368683</v>
+        <v>0.008820695802569389</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4546826779842377</v>
+        <v>0.5296424627304077</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1900591999292374</v>
+        <v>0.5298510193824768</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.07423251867294312</v>
+        <v>0.425152450799942</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1827786415815353</v>
+        <v>0.5946084856987</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1655231714248657</v>
+        <v>0.646510899066925</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.03555493429303169</v>
+        <v>0.6310431361198425</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04651082307100296</v>
+        <v>0.5596975684165955</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04562434926629066</v>
+        <v>0.4575655162334442</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.06887434422969818</v>
+        <v>0.4811104536056519</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.151578962802887</v>
+        <v>0.4704386591911316</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2300331592559814</v>
+        <v>0.4475893080234528</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2257046550512314</v>
+        <v>0.2263686209917068</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.08212275058031082</v>
+        <v>0.3384792506694794</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.09130287915468216</v>
+        <v>0.02533732727169991</v>
       </c>
     </row>
     <row r="121">
@@ -1767,128 +1767,128 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2507173120975494</v>
+        <v>0.0349038727581501</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1637795120477676</v>
+        <v>0.05808243900537491</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1357312947511673</v>
+        <v>0.04908696934580803</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1154743954539299</v>
+        <v>0.07401683181524277</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1275963634252548</v>
+        <v>0.09832297265529633</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1038700044155121</v>
+        <v>0.08987580239772797</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1166428327560425</v>
+        <v>0.08300454169511795</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1030008718371391</v>
+        <v>0.05638366192579269</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1537628769874573</v>
+        <v>0.05765534192323685</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2125467211008072</v>
+        <v>0.08246360719203949</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2903618812561035</v>
+        <v>0.0944649949669838</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2260615229606628</v>
+        <v>0.04385518282651901</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4101610481739044</v>
+        <v>0.02903297357261181</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1743268817663193</v>
+        <v>0.03385681286454201</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2743615210056305</v>
+        <v>0.02938653528690338</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241573691368103</v>
+        <v>0.03348647058010101</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.175341323018074</v>
+        <v>0.03370805829763412</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2411943078041077</v>
+        <v>0.08595895767211914</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2546711266040802</v>
+        <v>0.104348860681057</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2322570979595184</v>
+        <v>0.4719514846801758</v>
       </c>
     </row>
     <row r="141">
@@ -1984,131 +1984,131 @@
         <v>1</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2598931193351746</v>
+        <v>0.3549020886421204</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.08359896391630173</v>
+        <v>0.3151854574680328</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1422304660081863</v>
+        <v>0.2583411037921906</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1457688212394714</v>
+        <v>0.329937070608139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145" t="n">
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3227117657661438</v>
+        <v>0.3503689765930176</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3202835619449615</v>
+        <v>0.3201704621315002</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.1275386363267899</v>
+        <v>0.3194860816001892</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.1417741924524307</v>
+        <v>0.2787306606769562</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1720802336931229</v>
+        <v>0.2415427565574646</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2506406605243683</v>
+        <v>0.2299505174160004</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.253292977809906</v>
+        <v>0.2159487754106522</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.1711099743843079</v>
+        <v>0.2464807629585266</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03740179538726807</v>
+        <v>0.04117068275809288</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06732750684022903</v>
+        <v>0.06150968372821808</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1733883768320084</v>
+        <v>0.1297237873077393</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.219212532043457</v>
+        <v>0.1928198039531708</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3023117780685425</v>
+        <v>0.2294038981199265</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2219445705413818</v>
+        <v>0.2112446576356888</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2226223349571228</v>
+        <v>0.2111411839723587</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2238942980766296</v>
+        <v>0.1963580995798111</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2344710528850555</v>
+        <v>0.1872989535331726</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2768660187721252</v>
+        <v>0.2059442549943924</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2414791435003281</v>
+        <v>0.1692831069231033</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8291746973991394</v>
+        <v>0.6418303251266479</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7611868381500244</v>
+        <v>0.5575172901153564</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4734636843204498</v>
+        <v>0.3884090185165405</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5814279913902283</v>
+        <v>0.4598985910415649</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5565640330314636</v>
+        <v>0.4182932674884796</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.673491895198822</v>
+        <v>0.5007796883583069</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7300105094909668</v>
+        <v>0.5489427447319031</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.761567234992981</v>
+        <v>0.5780881643295288</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7357330322265625</v>
+        <v>0.5238200426101685</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155007004737854</v>
+        <v>0.1080282405018806</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2097953408956528</v>
+        <v>0.1490183472633362</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2624866962432861</v>
+        <v>0.1762554794549942</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1787820160388947</v>
+        <v>0.1470815986394882</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1612567454576492</v>
+        <v>0.1364322900772095</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1185626089572906</v>
+        <v>0.12071443349123</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1535468548536301</v>
+        <v>0.1524556130170822</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2845580279827118</v>
+        <v>0.2440771907567978</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2654629349708557</v>
+        <v>0.2200468331575394</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4568220973014832</v>
+        <v>0.3158462047576904</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1574608236551285</v>
+        <v>0.1110576465725899</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1929748058319092</v>
+        <v>0.1430499851703644</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2399800419807434</v>
+        <v>0.1893973499536514</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2418152540922165</v>
+        <v>0.1910818368196487</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2979227900505066</v>
+        <v>0.2168709486722946</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.28391432762146</v>
+        <v>0.2197292447090149</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1757860332727432</v>
+        <v>0.1058428063988686</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18007792532444</v>
+        <v>0.1190857887268066</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2688935101032257</v>
+        <v>0.1515913009643555</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2545669376850128</v>
+        <v>0.1610428094863892</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231383889913559</v>
+        <v>0.1576723754405975</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2694438695907593</v>
+        <v>0.1739860028028488</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2819192409515381</v>
+        <v>0.1893117129802704</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3138355314731598</v>
+        <v>0.2126404047012329</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2538057863712311</v>
+        <v>0.1992253363132477</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2508979439735413</v>
+        <v>0.1867568790912628</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2136723250150681</v>
+        <v>0.1708450168371201</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2248934656381607</v>
+        <v>0.1995985060930252</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2798483967781067</v>
+        <v>0.2195439636707306</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06069249659776688</v>
+        <v>0.06260289251804352</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1948908269405365</v>
+        <v>0.1232622414827347</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08063583076000214</v>
+        <v>0.07421642541885376</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1641909182071686</v>
+        <v>0.1181197836995125</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1716140359640121</v>
+        <v>0.1182970404624939</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2441223114728928</v>
+        <v>0.1541902869939804</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2852634489536285</v>
+        <v>0.1677494496107101</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3340131640434265</v>
+        <v>0.2097072303295135</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3426173031330109</v>
+        <v>0.208626464009285</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3651270270347595</v>
+        <v>0.2175691872835159</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2031812816858292</v>
+        <v>0.1607363820075989</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07775274664163589</v>
+        <v>0.07282067835330963</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3169300854206085</v>
+        <v>0.1668810993432999</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2735670208930969</v>
+        <v>0.1651167571544647</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3010741770267487</v>
+        <v>0.1673527806997299</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2732953131198883</v>
+        <v>0.1690352708101273</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.307756245136261</v>
+        <v>0.1855337470769882</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3059059977531433</v>
+        <v>0.1946390420198441</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2778838276863098</v>
+        <v>0.2029409259557724</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1928674429655075</v>
+        <v>0.1551684737205505</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1129146218299866</v>
+        <v>0.1021379306912422</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0458541102707386</v>
+        <v>0.04592368379235268</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06793250888586044</v>
+        <v>0.06784311681985855</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1087553575634956</v>
+        <v>0.1052712649106979</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09613728523254395</v>
+        <v>0.07967453449964523</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.00826827809214592</v>
+        <v>0.02052308991551399</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02065853215754032</v>
+        <v>0.04130767285823822</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02163713797926903</v>
+        <v>0.04119238257408142</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02180598676204681</v>
+        <v>0.04167826846241951</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0236425343900919</v>
+        <v>0.04043029248714447</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1082879602909088</v>
+        <v>0.1189000010490417</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1412556320428848</v>
+        <v>0.1454259753227234</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.08045270293951035</v>
+        <v>0.1015126183629036</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09730981290340424</v>
+        <v>0.1153659000992775</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1532399356365204</v>
+        <v>0.1632967442274094</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1408459097146988</v>
+        <v>0.1480910629034042</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1111524626612663</v>
+        <v>0.1263437867164612</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.006481354124844074</v>
+        <v>0.01733490824699402</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5975919365882874</v>
+        <v>0.4967441558837891</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4511335492134094</v>
+        <v>0.3761352300643921</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3454401791095734</v>
+        <v>0.3116963803768158</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1559191644191742</v>
+        <v>0.1913608014583588</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1261289268732071</v>
+        <v>0.1648889482021332</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1047757193446159</v>
+        <v>0.1481034606695175</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1135327965021133</v>
+        <v>0.1517129987478256</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1201462596654892</v>
+        <v>0.1522211581468582</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1363989412784576</v>
+        <v>0.1582673043012619</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1290682405233383</v>
+        <v>0.1378110647201538</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1897276043891907</v>
+        <v>0.1736202239990234</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.03656404837965965</v>
+        <v>0.05912696942687035</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.03896018117666245</v>
+        <v>0.06547874957323074</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01419510878622532</v>
+        <v>0.03278746455907822</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01551678963005543</v>
+        <v>0.03301538154482841</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.02480655536055565</v>
+        <v>0.04297418892383575</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.09624575078487396</v>
+        <v>0.1087262183427811</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.008820695802569389</v>
+        <v>0.0212570782750845</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5296424627304077</v>
+        <v>0.3626241683959961</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5298510193824768</v>
+        <v>0.4373884201049805</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.425152450799942</v>
+        <v>0.3712976574897766</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5946084856987</v>
+        <v>0.4782911539077759</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.646510899066925</v>
+        <v>0.507128894329071</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6310431361198425</v>
+        <v>0.5025902986526489</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5596975684165955</v>
+        <v>0.4441199004650116</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4575655162334442</v>
+        <v>0.3702408671379089</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4811104536056519</v>
+        <v>0.3731858730316162</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4704386591911316</v>
+        <v>0.3733540177345276</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4475893080234528</v>
+        <v>0.357732743024826</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2263686209917068</v>
+        <v>0.2092773020267487</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3384792506694794</v>
+        <v>0.2711615860462189</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.02533732727169991</v>
+        <v>0.0347520224750042</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0349038727581501</v>
+        <v>0.04419194906949997</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.05808243900537491</v>
+        <v>0.05908270552754402</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04908696934580803</v>
+        <v>0.05559444800019264</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.07401683181524277</v>
+        <v>0.07206582278013229</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.09832297265529633</v>
+        <v>0.1134421154856682</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.08987580239772797</v>
+        <v>0.09888230264186859</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08300454169511795</v>
+        <v>0.1044054925441742</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.05638366192579269</v>
+        <v>0.06385194510221481</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.05765534192323685</v>
+        <v>0.06439322978258133</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08246360719203949</v>
+        <v>0.08287300169467926</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0944649949669838</v>
+        <v>0.100757785141468</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04385518282651901</v>
+        <v>0.0547415092587471</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.02903297357261181</v>
+        <v>0.03744423016905785</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03385681286454201</v>
+        <v>0.04409107565879822</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.02938653528690338</v>
+        <v>0.03637109696865082</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.03348647058010101</v>
+        <v>0.04411314427852631</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03370805829763412</v>
+        <v>0.04628681764006615</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.08595895767211914</v>
+        <v>0.08433198183774948</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.104348860681057</v>
+        <v>0.08478700369596481</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.4719514846801758</v>
+        <v>0.423570990562439</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3549020886421204</v>
+        <v>0.3445878624916077</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3151854574680328</v>
+        <v>0.3213155269622803</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2583411037921906</v>
+        <v>0.2671226859092712</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.329937070608139</v>
+        <v>0.3028896749019623</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3503689765930176</v>
+        <v>0.2943570911884308</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3201704621315002</v>
+        <v>0.2639008164405823</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3194860816001892</v>
+        <v>0.2549415528774261</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2787306606769562</v>
+        <v>0.254250556230545</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2415427565574646</v>
+        <v>0.2408684492111206</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2299505174160004</v>
+        <v>0.2088534981012344</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2159487754106522</v>
+        <v>0.1932651996612549</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2464807629585266</v>
+        <v>0.2001610696315765</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04117068275809288</v>
+        <v>0.1188165619969368</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06150968372821808</v>
+        <v>0.1512658447027206</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1297237873077393</v>
+        <v>0.2242134213447571</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1928198039531708</v>
+        <v>0.3096957802772522</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2294038981199265</v>
+        <v>0.3379721641540527</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2112446576356888</v>
+        <v>0.3468100428581238</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2111411839723587</v>
+        <v>0.3296249508857727</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1963580995798111</v>
+        <v>0.3122509717941284</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1872989535331726</v>
+        <v>0.2967653572559357</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2059442549943924</v>
+        <v>0.2972207069396973</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1692831069231033</v>
+        <v>0.2364516407251358</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6418303251266479</v>
+        <v>0.5245960354804993</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5575172901153564</v>
+        <v>0.5079912543296814</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3884090185165405</v>
+        <v>0.4325158298015594</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4598985910415649</v>
+        <v>0.4800654053688049</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4182932674884796</v>
+        <v>0.4733045101165771</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5007796883583069</v>
+        <v>0.4899891316890717</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5489427447319031</v>
+        <v>0.4954513609409332</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5780881643295288</v>
+        <v>0.4950730502605438</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5238200426101685</v>
+        <v>0.4439238011837006</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1080282405018806</v>
+        <v>0.1955820620059967</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1490183472633362</v>
+        <v>0.2433383911848068</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1762554794549942</v>
+        <v>0.2592582702636719</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1470815986394882</v>
+        <v>0.2612524628639221</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1364322900772095</v>
+        <v>0.2574653327465057</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.12071443349123</v>
+        <v>0.3027576506137848</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1524556130170822</v>
+        <v>0.3348763883113861</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2440771907567978</v>
+        <v>0.3944074511528015</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2200468331575394</v>
+        <v>0.3402085602283478</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3158462047576904</v>
+        <v>0.3383660912513733</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1110576465725899</v>
+        <v>0.1926058679819107</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1430499851703644</v>
+        <v>0.2456619888544083</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1893973499536514</v>
+        <v>0.2879237830638885</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1910818368196487</v>
+        <v>0.2897093296051025</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2168709486722946</v>
+        <v>0.2922750413417816</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2197292447090149</v>
+        <v>0.3065248131752014</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1058428063988686</v>
+        <v>0.1554756164550781</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1190857887268066</v>
+        <v>0.1969741135835648</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1515913009643555</v>
+        <v>0.2269046753644943</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1610428094863892</v>
+        <v>0.2486416399478912</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1576723754405975</v>
+        <v>0.245068371295929</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1739860028028488</v>
+        <v>0.2513101696968079</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1893117129802704</v>
+        <v>0.2653211355209351</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2126404047012329</v>
+        <v>0.2760837376117706</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1992253363132477</v>
+        <v>0.2869378924369812</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1867568790912628</v>
+        <v>0.2772007882595062</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1708450168371201</v>
+        <v>0.2808414399623871</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1995985060930252</v>
+        <v>0.3245479464530945</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2195439636707306</v>
+        <v>0.3152503073215485</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06260289251804352</v>
+        <v>0.1641057580709457</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1232622414827347</v>
+        <v>0.2162102460861206</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07421642541885376</v>
+        <v>0.2150707244873047</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1181197836995125</v>
+        <v>0.2798622846603394</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1182970404624939</v>
+        <v>0.2392637133598328</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1541902869939804</v>
+        <v>0.292321115732193</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1677494496107101</v>
+        <v>0.2929279804229736</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2097072303295135</v>
+        <v>0.3150218725204468</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.208626464009285</v>
+        <v>0.3033205270767212</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2175691872835159</v>
+        <v>0.3003256320953369</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1607363820075989</v>
+        <v>0.2752866446971893</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07282067835330963</v>
+        <v>0.1775569021701813</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1668810993432999</v>
+        <v>0.2173221558332443</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1651167571544647</v>
+        <v>0.2741755843162537</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1673527806997299</v>
+        <v>0.2742495834827423</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1690352708101273</v>
+        <v>0.3034623861312866</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1855337470769882</v>
+        <v>0.2913829684257507</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1946390420198441</v>
+        <v>0.2898159623146057</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2029409259557724</v>
+        <v>0.3096034824848175</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1551684737205505</v>
+        <v>0.2856425642967224</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1021379306912422</v>
+        <v>0.2436377108097076</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04592368379235268</v>
+        <v>0.1178390458226204</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06784311681985855</v>
+        <v>0.1865808814764023</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1052712649106979</v>
+        <v>0.2536279857158661</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07967453449964523</v>
+        <v>0.1641101539134979</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02052308991551399</v>
+        <v>0.1083383858203888</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04130767285823822</v>
+        <v>0.1467050760984421</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04119238257408142</v>
+        <v>0.1217566132545471</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04167826846241951</v>
+        <v>0.1166335642337799</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04043029248714447</v>
+        <v>0.1074182689189911</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1189000010490417</v>
+        <v>0.2625958919525146</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1454259753227234</v>
+        <v>0.2829925715923309</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1015126183629036</v>
+        <v>0.2593162059783936</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1153659000992775</v>
+        <v>0.2743602991104126</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1632967442274094</v>
+        <v>0.3078576624393463</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1480910629034042</v>
+        <v>0.2901793420314789</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1263437867164612</v>
+        <v>0.2692190706729889</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01733490824699402</v>
+        <v>0.05635860189795494</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4967441558837891</v>
+        <v>0.4742066860198975</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3761352300643921</v>
+        <v>0.4719437658786774</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3116963803768158</v>
+        <v>0.4365094006061554</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1913608014583588</v>
+        <v>0.3531428575515747</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1648889482021332</v>
+        <v>0.3420243263244629</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1481034606695175</v>
+        <v>0.3227056860923767</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1517129987478256</v>
+        <v>0.3132385015487671</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1522211581468582</v>
+        <v>0.3068903982639313</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1582673043012619</v>
+        <v>0.2996633946895599</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1378110647201538</v>
+        <v>0.2689110040664673</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1736202239990234</v>
+        <v>0.2743124067783356</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.05912696942687035</v>
+        <v>0.175585150718689</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06547874957323074</v>
+        <v>0.132304310798645</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.03278746455907822</v>
+        <v>0.09536048769950867</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.03301538154482841</v>
+        <v>0.09431564807891846</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04297418892383575</v>
+        <v>0.1291425973176956</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1087262183427811</v>
+        <v>0.2054184973239899</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0212570782750845</v>
+        <v>0.07543609291315079</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3626241683959961</v>
+        <v>0.3619445264339447</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4373884201049805</v>
+        <v>0.4739439487457275</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.3712976574897766</v>
+        <v>0.4445263147354126</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4782911539077759</v>
+        <v>0.4759949743747711</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.507128894329071</v>
+        <v>0.4796954989433289</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5025902986526489</v>
+        <v>0.464531421661377</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4441199004650116</v>
+        <v>0.4226051867008209</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3702408671379089</v>
+        <v>0.3943480849266052</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3731858730316162</v>
+        <v>0.3831710517406464</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3733540177345276</v>
+        <v>0.4048615097999573</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.357732743024826</v>
+        <v>0.3966624438762665</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2092773020267487</v>
+        <v>0.3270810544490814</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2711615860462189</v>
+        <v>0.3245681822299957</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0347520224750042</v>
+        <v>0.08602330833673477</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04419194906949997</v>
+        <v>0.1132185906171799</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.05908270552754402</v>
+        <v>0.1132300794124603</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.05559444800019264</v>
+        <v>0.09488606452941895</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.07206582278013229</v>
+        <v>0.1190371513366699</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.1134421154856682</v>
+        <v>0.2659381628036499</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09888230264186859</v>
+        <v>0.2306400686502457</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1044054925441742</v>
+        <v>0.2671290934085846</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.06385194510221481</v>
+        <v>0.1038608551025391</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.06439322978258133</v>
+        <v>0.1045923754572868</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08287300169467926</v>
+        <v>0.1208558157086372</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.100757785141468</v>
+        <v>0.2148198336362839</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0547415092587471</v>
+        <v>0.1113579422235489</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0.03744423016905785</v>
+        <v>0.1395760327577591</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04409107565879822</v>
+        <v>0.1503533571958542</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.03637109696865082</v>
+        <v>0.09265979379415512</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04411314427852631</v>
+        <v>0.09786074608564377</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.04628681764006615</v>
+        <v>0.1048392951488495</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.08433198183774948</v>
+        <v>0.1435479372739792</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.08478700369596481</v>
+        <v>0.1101126149296761</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.423570990562439</v>
+        <v>0.466966986656189</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3445878624916077</v>
+        <v>0.4351268708705902</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3213155269622803</v>
+        <v>0.4381533563137054</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2671226859092712</v>
+        <v>0.4084660410881042</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3028896749019623</v>
+        <v>0.4034694731235504</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2943570911884308</v>
+        <v>0.3955326974391937</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2639008164405823</v>
+        <v>0.3639266490936279</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2549415528774261</v>
+        <v>0.3449412286281586</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0.254250556230545</v>
+        <v>0.3656339347362518</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2408684492111206</v>
+        <v>0.375061422586441</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2088534981012344</v>
+        <v>0.3434031307697296</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1932651996612549</v>
+        <v>0.3420257270336151</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2001610696315765</v>
+        <v>0.333778589963913</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1188165619969368</v>
+        <v>0.2111711800098419</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1512658447027206</v>
+        <v>0.1226469203829765</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2242134213447571</v>
+        <v>0.1214046403765678</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3096957802772522</v>
+        <v>0.1647690236568451</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3379721641540527</v>
+        <v>0.1082144677639008</v>
       </c>
     </row>
     <row r="7">
@@ -510,384 +510,384 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3468100428581238</v>
+        <v>0.2398846745491028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3296249508857727</v>
+        <v>0.06099136546254158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3122509717941284</v>
+        <v>0.09570943564176559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2967653572559357</v>
+        <v>0.1405928730964661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2972207069396973</v>
+        <v>0.1948205232620239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2364516407251358</v>
+        <v>0.1433138996362686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5245960354804993</v>
+        <v>0.1221033856272697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5079912543296814</v>
+        <v>0.1411594897508621</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4325158298015594</v>
+        <v>0.3227188885211945</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4800654053688049</v>
+        <v>0.3209746479988098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4733045101165771</v>
+        <v>0.1829532235860825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4899891316890717</v>
+        <v>0.1188426464796066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4954513609409332</v>
+        <v>0.0824524313211441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4950730502605438</v>
+        <v>0.04523115605115891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4439238011837006</v>
+        <v>0.3135909140110016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1955820620059967</v>
+        <v>0.260943740606308</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2433383911848068</v>
+        <v>0.2869180142879486</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2592582702636719</v>
+        <v>0.2048559337854385</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2612524628639221</v>
+        <v>0.2113205641508102</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2574653327465057</v>
+        <v>0.3430073857307434</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3027576506137848</v>
+        <v>0.2720306217670441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3348763883113861</v>
+        <v>0.2904679179191589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3944074511528015</v>
+        <v>0.320574551820755</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3402085602283478</v>
+        <v>0.2121167927980423</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3383660912513733</v>
+        <v>0.3219884634017944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1926058679819107</v>
+        <v>0.2278229594230652</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2456619888544083</v>
+        <v>0.2732341587543488</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2879237830638885</v>
+        <v>0.1940726488828659</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2897093296051025</v>
+        <v>0.3459853529930115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2922750413417816</v>
+        <v>0.3224747180938721</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3065248131752014</v>
+        <v>0.28202885389328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1554756164550781</v>
+        <v>0.2141373008489609</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1969741135835648</v>
+        <v>0.2772185802459717</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2269046753644943</v>
+        <v>0.2893974781036377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2486416399478912</v>
+        <v>0.1849007308483124</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.245068371295929</v>
+        <v>0.1029034927487373</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2513101696968079</v>
+        <v>0.1622067242860794</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2653211355209351</v>
+        <v>0.1301718354225159</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2760837376117706</v>
+        <v>0.1537786871194839</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2869378924369812</v>
+        <v>0.1302340775728226</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2772007882595062</v>
+        <v>0.2054261416196823</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2808414399623871</v>
+        <v>0.2205804586410522</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3245479464530945</v>
+        <v>0.1910471767187119</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3152503073215485</v>
+        <v>0.3399065732955933</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1641057580709457</v>
+        <v>0.2418766468763351</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2162102460861206</v>
+        <v>0.01189909595996141</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2150707244873047</v>
+        <v>0.008858697488903999</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2798622846603394</v>
+        <v>0.2109255790710449</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2392637133598328</v>
+        <v>0.2188402265310287</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.292321115732193</v>
+        <v>0.1979927271604538</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2929279804229736</v>
+        <v>0.01293550804257393</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3150218725204468</v>
+        <v>0.2897872924804688</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3033205270767212</v>
+        <v>0.2699559330940247</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3003256320953369</v>
+        <v>0.210710421204567</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2752866446971893</v>
+        <v>0.2456325143575668</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1775569021701813</v>
+        <v>0.269225686788559</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2173221558332443</v>
+        <v>0.2437815219163895</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2741755843162537</v>
+        <v>0.260773092508316</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2742495834827423</v>
+        <v>0.2777315378189087</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3034623861312866</v>
+        <v>0.05363835394382477</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2913829684257507</v>
+        <v>0.0401313342154026</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2898159623146057</v>
+        <v>0.07073209434747696</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3096034824848175</v>
+        <v>0.04119530320167542</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2856425642967224</v>
+        <v>0.06187446415424347</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2436377108097076</v>
+        <v>0.09852007031440735</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1178390458226204</v>
+        <v>0.09873189032077789</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1865808814764023</v>
+        <v>0.1614255309104919</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2536279857158661</v>
+        <v>0.2059096843004227</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1641101539134979</v>
+        <v>0.1298041492700577</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1083383858203888</v>
+        <v>0.1017431542277336</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1467050760984421</v>
+        <v>0.02252169884741306</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1217566132545471</v>
+        <v>0.01679143309593201</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1166335642337799</v>
+        <v>0.03705660998821259</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1074182689189911</v>
+        <v>0.1157988309860229</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2625958919525146</v>
+        <v>0.2082330584526062</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2829925715923309</v>
+        <v>0.2516114711761475</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2593162059783936</v>
+        <v>0.3025907874107361</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2743602991104126</v>
+        <v>0.2806733548641205</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3078576624393463</v>
+        <v>0.2729407250881195</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2901793420314789</v>
+        <v>0.2413311004638672</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2692190706729889</v>
+        <v>0.02119657211005688</v>
       </c>
     </row>
     <row r="88">
@@ -1404,128 +1404,128 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05635860189795494</v>
+        <v>0.006082597188651562</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4742066860198975</v>
+        <v>0.2502770721912384</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4719437658786774</v>
+        <v>0.321917861700058</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4365094006061554</v>
+        <v>0.1682362854480743</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3531428575515747</v>
+        <v>0.09960945695638657</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3420243263244629</v>
+        <v>0.08758153766393661</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3227056860923767</v>
+        <v>0.08556089550256729</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3132385015487671</v>
+        <v>0.1138565018773079</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3068903982639313</v>
+        <v>0.1668254286050797</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2996633946895599</v>
+        <v>0.1625968515872955</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2689110040664673</v>
+        <v>0.182009369134903</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2743124067783356</v>
+        <v>0.1595935225486755</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.175585150718689</v>
+        <v>0.2230765968561172</v>
       </c>
     </row>
     <row r="101">
@@ -1547,150 +1547,150 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.132304310798645</v>
+        <v>0.1260701417922974</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.09536048769950867</v>
+        <v>0.3758924901485443</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09431564807891846</v>
+        <v>0.4206041097640991</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1291425973176956</v>
+        <v>0.4062342941761017</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2054184973239899</v>
+        <v>0.3733584880828857</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.07543609291315079</v>
+        <v>0.4107532501220703</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3619445264339447</v>
+        <v>0.4163398146629333</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4739439487457275</v>
+        <v>0.418042778968811</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B109" t="n">
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4445263147354126</v>
+        <v>0.4288762211799622</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4759949743747711</v>
+        <v>0.4618553221225739</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4796954989433289</v>
+        <v>0.4628526568412781</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.464531421661377</v>
+        <v>0.463093638420105</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B113" t="n">
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4226051867008209</v>
+        <v>0.4445433616638184</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3943480849266052</v>
+        <v>0.4022348523139954</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3831710517406464</v>
+        <v>0.04486769810318947</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4048615097999573</v>
+        <v>0.05326631665229797</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3966624438762665</v>
+        <v>0.02651081420481205</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3270810544490814</v>
+        <v>0.01715597696602345</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3245681822299957</v>
+        <v>0.01490725204348564</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.08602330833673477</v>
+        <v>0.1888440400362015</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1132185906171799</v>
+        <v>0.1003443971276283</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.1132300794124603</v>
+        <v>0.2202661037445068</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.09488606452941895</v>
+        <v>0.0144603094086051</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1190371513366699</v>
+        <v>0.01864242553710938</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2659381628036499</v>
+        <v>0.02664083242416382</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2306400686502457</v>
+        <v>0.1124173998832703</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2671290934085846</v>
+        <v>0.07631251960992813</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1038608551025391</v>
+        <v>0.4546854496002197</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1045923754572868</v>
+        <v>0.44863361120224</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1208558157086372</v>
+        <v>0.4573538601398468</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2148198336362839</v>
+        <v>0.4507770836353302</v>
       </c>
     </row>
     <row r="132">
@@ -1885,230 +1885,87 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1113579422235489</v>
+        <v>0.4449712038040161</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1395760327577591</v>
+        <v>0.4488073587417603</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1503533571958542</v>
+        <v>0.4187117218971252</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.09265979379415512</v>
+        <v>0.2205629199743271</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.09786074608564377</v>
+        <v>0.1627701222896576</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1048392951488495</v>
+        <v>0.2015214264392853</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1435479372739792</v>
+        <v>0.2358222007751465</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1101126149296761</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.466966986656189</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.4351268708705902</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>1</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.4381533563137054</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.4084660410881042</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>1</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.4034694731235504</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>1</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.3955326974391937</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>1</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.3639266490936279</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>1</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.3449412286281586</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>1</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.3656339347362518</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>1</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.375061422586441</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.3434031307697296</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>1</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.3420257270336151</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>1</v>
-      </c>
-      <c r="B152" t="n">
-        <v>1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.333778589963913</v>
+        <v>0.3457100093364716</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2111711800098419</v>
+        <v>0.2423768937587738</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1226469203829765</v>
+        <v>0.2141522169113159</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1214046403765678</v>
+        <v>0.171058863401413</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1647690236568451</v>
+        <v>0.163922056555748</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1082144677639008</v>
+        <v>0.1443259865045547</v>
       </c>
     </row>
     <row r="7">
@@ -513,183 +513,183 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2398846745491028</v>
+        <v>0.1433170586824417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06099136546254158</v>
+        <v>0.07674160599708557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09570943564176559</v>
+        <v>0.07085703313350677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1405928730964661</v>
+        <v>0.06320283561944962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1948205232620239</v>
+        <v>0.03795327246189117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1433138996362686</v>
+        <v>0.05615849792957306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1221033856272697</v>
+        <v>0.02710730396211147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1411594897508621</v>
+        <v>0.02265266142785549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3227188885211945</v>
+        <v>0.4519115388393402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3209746479988098</v>
+        <v>0.4591010510921478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1829532235860825</v>
+        <v>0.4695819318294525</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1188426464796066</v>
+        <v>0.4427358508110046</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0824524313211441</v>
+        <v>0.3210616707801819</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04523115605115891</v>
+        <v>0.3282250463962555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3135909140110016</v>
+        <v>0.1838354170322418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.260943740606308</v>
+        <v>0.2265088856220245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2869180142879486</v>
+        <v>0.234130859375</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2048559337854385</v>
+        <v>0.4731861054897308</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2113205641508102</v>
+        <v>0.3421474695205688</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3430073857307434</v>
+        <v>0.2902712225914001</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2720306217670441</v>
+        <v>0.3035597801208496</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2904679179191589</v>
+        <v>0.3126732110977173</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.320574551820755</v>
+        <v>0.3400627374649048</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2121167927980423</v>
+        <v>0.3633091747760773</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3219884634017944</v>
+        <v>0.3100945055484772</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2278229594230652</v>
+        <v>0.3196477293968201</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2732341587543488</v>
+        <v>0.1452595591545105</v>
       </c>
     </row>
     <row r="34">
@@ -810,84 +810,84 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1940726488828659</v>
+        <v>0.1652493476867676</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3459853529930115</v>
+        <v>0.2736171185970306</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3224747180938721</v>
+        <v>0.2101873904466629</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.28202885389328</v>
+        <v>0.2439700067043304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2141373008489609</v>
+        <v>0.1983219832181931</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2772185802459717</v>
+        <v>0.1865286976099014</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2893974781036377</v>
+        <v>0.1352040618658066</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1849007308483124</v>
+        <v>0.1944998651742935</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1029034927487373</v>
+        <v>0.2424329519271851</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1622067242860794</v>
+        <v>0.2635679841041565</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1301718354225159</v>
+        <v>0.2568172216415405</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1537786871194839</v>
+        <v>0.2787215113639832</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1302340775728226</v>
+        <v>0.2317225337028503</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2054261416196823</v>
+        <v>0.2319242656230927</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2205804586410522</v>
+        <v>0.02203628607094288</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1910471767187119</v>
+        <v>0.01773749478161335</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3399065732955933</v>
+        <v>0.008562291972339153</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2418766468763351</v>
+        <v>0.003417270956560969</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01189909595996141</v>
+        <v>0.01026259455829859</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008858697488903999</v>
+        <v>0.03407850116491318</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2109255790710449</v>
+        <v>0.01792020723223686</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2188402265310287</v>
+        <v>0.1740320324897766</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1979927271604538</v>
+        <v>0.3188127279281616</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01293550804257393</v>
+        <v>0.4094378650188446</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2897872924804688</v>
+        <v>0.3700665533542633</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2699559330940247</v>
+        <v>0.3780631721019745</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.210710421204567</v>
+        <v>0.3382610678672791</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2456325143575668</v>
+        <v>0.3531700372695923</v>
       </c>
     </row>
     <row r="62">
@@ -1118,139 +1118,139 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.269225686788559</v>
+        <v>0.2288218289613724</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2437815219163895</v>
+        <v>0.05838078632950783</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.260773092508316</v>
+        <v>0.1132994294166565</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2777315378189087</v>
+        <v>0.07643108814954758</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05363835394382477</v>
+        <v>0.199734091758728</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0401313342154026</v>
+        <v>0.2116085439920425</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07073209434747696</v>
+        <v>0.253777027130127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04119530320167542</v>
+        <v>0.2955771386623383</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06187446415424347</v>
+        <v>0.1555579304695129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09852007031440735</v>
+        <v>0.1888774931430817</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09873189032077789</v>
+        <v>0.201870396733284</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1614255309104919</v>
+        <v>0.2160337120294571</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2059096843004227</v>
+        <v>0.3485787212848663</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1298041492700577</v>
+        <v>0.0488603375852108</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1017431542277336</v>
+        <v>0.0400969460606575</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02252169884741306</v>
+        <v>0.09010564535856247</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01679143309593201</v>
+        <v>0.1107361763715744</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03705660998821259</v>
+        <v>0.09595515578985214</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1157988309860229</v>
+        <v>0.08600776642560959</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2082330584526062</v>
+        <v>0.09666159749031067</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2516114711761475</v>
+        <v>0.1626128703355789</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3025907874107361</v>
+        <v>0.1749355494976044</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2806733548641205</v>
+        <v>0.1942234188318253</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2729407250881195</v>
+        <v>0.008956825360655785</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2413311004638672</v>
+        <v>0.02856804803013802</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02119657211005688</v>
+        <v>0.02507897280156612</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.006082597188651562</v>
+        <v>0.01154556125402451</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2502770721912384</v>
+        <v>0.01562933064997196</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.321917861700058</v>
+        <v>0.01098980382084846</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1682362854480743</v>
+        <v>0.008229929953813553</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09960945695638657</v>
+        <v>0.006982348393648863</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08758153766393661</v>
+        <v>0.005428193602710962</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.08556089550256729</v>
+        <v>0.007315672002732754</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1138565018773079</v>
+        <v>0.01114827580749989</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1668254286050797</v>
+        <v>0.02835725620388985</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1625968515872955</v>
+        <v>0.0283043347299099</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.182009369134903</v>
+        <v>0.01884669996798038</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1595935225486755</v>
+        <v>0.02011395245790482</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2230765968561172</v>
+        <v>0.01005941350013018</v>
       </c>
     </row>
     <row r="101">
@@ -1547,425 +1547,95 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1260701417922974</v>
+        <v>0.01667194068431854</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3758924901485443</v>
+        <v>0.04100017994642258</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4206041097640991</v>
+        <v>0.1284024268388748</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4062342941761017</v>
+        <v>0.03884322568774223</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3733584880828857</v>
+        <v>0.008872151374816895</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4107532501220703</v>
+        <v>0.0118993641808629</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4163398146629333</v>
+        <v>0.01089505385607481</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.418042778968811</v>
+        <v>0.0102131562307477</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4288762211799622</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.4618553221225739</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.4628526568412781</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.463093638420105</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.4445433616638184</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.4022348523139954</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.04486769810318947</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.05326631665229797</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>0</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.02651081420481205</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>0</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.01715597696602345</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.01490725204348564</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>0</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.1888440400362015</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.1003443971276283</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.2202661037445068</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.0144603094086051</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.01864242553710938</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.02664083242416382</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.1124173998832703</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.07631251960992813</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.4546854496002197</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.44863361120224</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.4573538601398468</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.4507770836353302</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.4449712038040161</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.4488073587417603</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.4187117218971252</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.2205629199743271</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.1627701222896576</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.2015214264392853</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.2358222007751465</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.3457100093364716</v>
+        <v>0.02650719508528709</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,115 +449,220 @@
           <t>Confidence</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>class_0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>class_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>class_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2111711800098419</v>
+        <v>0.9641340970993042</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9641340970993042</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02157380245625973</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01429215352982283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1226469203829765</v>
+        <v>0.9400603771209717</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9400603771209717</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03471526876091957</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02522433921694756</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1214046403765678</v>
+        <v>0.9590908885002136</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9590908885002136</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.02442021295428276</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01648890413343906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1647690236568451</v>
+        <v>0.9494917988777161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9494917988777161</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0296921543776989</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02081616222858429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1082144677639008</v>
+        <v>0.9405920505523682</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9405920505523682</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03450062125921249</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02490724064409733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2398846745491028</v>
+        <v>0.6927834153175354</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6927834153175354</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1522987335920334</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1549178510904312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06099136546254158</v>
+        <v>0.6918555498123169</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6918555498123169</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1527604311704636</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1553840190172195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09570943564176559</v>
+        <v>0.7683541774749756</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7683541774749756</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1186829954385757</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1129628643393517</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1405928730964661</v>
+        <v>0.5282899141311646</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5282899141311646</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2195630520582199</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2521470487117767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1948205232620239</v>
+        <v>0.6409177184104919</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6409177184104919</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1744872480630875</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.184595063328743</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +673,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1433138996362686</v>
+        <v>0.5469107627868652</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5469107627868652</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2126307189464569</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2404585331678391</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +693,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1221033856272697</v>
+        <v>0.8481502532958984</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8481502532958984</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08125331997871399</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07059645652770996</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +713,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1411594897508621</v>
+        <v>0.8458606600761414</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8458606600761414</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.08238697797060013</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07175233215093613</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +730,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3227188885211945</v>
+        <v>0.8349931836128235</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8349931836128235</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0876658633351326</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.07734091579914093</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +750,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3209746479988098</v>
+        <v>0.78158038854599</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.78158038854599</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.112659715116024</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1057598441839218</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +773,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1829532235860825</v>
+        <v>0.5157343745231628</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5157343745231628</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2242724299430847</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2599932253360748</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +793,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1188426464796066</v>
+        <v>0.4759810268878937</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4759810268878937</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2388155460357666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2852034568786621</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +813,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0824524313211441</v>
+        <v>0.3857967555522919</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3857967555522919</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2675633430480957</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3466399013996124</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +833,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04523115605115891</v>
+        <v>0.4325667917728424</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4325667917728424</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2538925111293793</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3135406374931335</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +850,19 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3135909140110016</v>
+        <v>0.3878745436668396</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3878745436668396</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2666596174240112</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3454658389091492</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +873,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.260943740606308</v>
+        <v>0.7600338459014893</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7600338459014893</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1223653852939606</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1176008284091949</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +893,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2869180142879486</v>
+        <v>0.9410508275032043</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9410508275032043</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03420691937208176</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02474225871264935</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +913,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2048559337854385</v>
+        <v>0.8534215092658997</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8534215092658997</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.07857031375169754</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.06800814718008041</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +933,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2113205641508102</v>
+        <v>0.8842275738716125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8842275738716125</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0634438544511795</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.05232854187488556</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +950,19 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3430073857307434</v>
+        <v>0.8615639805793762</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8615639805793762</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.07465659826993942</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06377942115068436</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +973,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2720306217670441</v>
+        <v>0.5125349760055542</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5125349760055542</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2256894260644913</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.2617755234241486</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +993,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2904679179191589</v>
+        <v>0.9511287212371826</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9511287212371826</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0287306122481823</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02014066465198994</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +1010,19 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.320574551820755</v>
+        <v>0.9632681608200073</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9632681608200073</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02206762880086899</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01466415822505951</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +1033,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2121167927980423</v>
+        <v>0.907492458820343</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.907492458820343</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.05161852762103081</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.04088909551501274</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +1050,19 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3219884634017944</v>
+        <v>0.9433377385139465</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9433377385139465</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.03295242786407471</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02370978333055973</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +1073,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2278229594230652</v>
+        <v>0.9734699726104736</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9734699726104736</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01631926745176315</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.01021069567650557</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +1093,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2732341587543488</v>
+        <v>0.9664977788925171</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9664977788925171</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.02027506753802299</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01322717405855656</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +1113,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1940726488828659</v>
+        <v>0.9000018835067749</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9000018835067749</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.05553831905126572</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.04445970058441162</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +1130,19 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3459853529930115</v>
+        <v>0.8766375780105591</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8766375780105591</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.06724230945110321</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.05612005293369293</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +1150,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3224747180938721</v>
+        <v>0.897462010383606</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.897462010383606</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05681666731834412</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.04572133719921112</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +1173,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.28202885389328</v>
+        <v>0.8881962895393372</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8881962895393372</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.06149375811219215</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.05031000077724457</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +1193,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2141373008489609</v>
+        <v>0.7877683043479919</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7877683043479919</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.109678640961647</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1025531217455864</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2772185802459717</v>
+        <v>0.5624062418937683</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5624062418937683</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2062541097402573</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2313396632671356</v>
       </c>
     </row>
     <row r="40">
@@ -876,238 +1233,436 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2893974781036377</v>
+        <v>0.4159656465053558</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4159656465053558</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.2592898309230804</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3247445523738861</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1849007308483124</v>
+        <v>0.9142559170722961</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9142559170722961</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.04832050949335098</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03742358833551407</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1029034927487373</v>
+        <v>0.9716556072235107</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9716556072235107</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01738917082548141</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.01095524337142706</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1622067242860794</v>
+        <v>0.7093042135238647</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7093042135238647</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1450544893741608</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1456413716077805</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1301718354225159</v>
+        <v>0.9352890849113464</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9352890849113464</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.03733804449439049</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02737278863787651</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1537786871194839</v>
+        <v>0.9818509817123413</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9818509817123413</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01147172879427671</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.006677203811705112</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1302340775728226</v>
+        <v>0.967369556427002</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.967369556427002</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.01980874873697758</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.01282170042395592</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2054261416196823</v>
+        <v>0.9668976664543152</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9668976664543152</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0200826320797205</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.01301965676248074</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2205804586410522</v>
+        <v>0.9176446199417114</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9176446199417114</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.04654693976044655</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03580843284726143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1910471767187119</v>
+        <v>0.8120815753936768</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8120815753936768</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.09842527657747269</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.08949309587478638</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3399065732955933</v>
+        <v>0.6609172821044922</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6609172821044922</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1657746434211731</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1733080744743347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2418766468763351</v>
+        <v>0.4564203023910522</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.4564203023910522</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2452927827835083</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2982869446277618</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01189909595996141</v>
+        <v>0.5838582515716553</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5838582515716553</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1972757279872894</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.2188660502433777</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008858697488903999</v>
+        <v>0.4460700750350952</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4460700750350952</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.2484344244003296</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.30549556016922</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2109255790710449</v>
+        <v>0.3807396590709686</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.3807396590709686</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2678993046283722</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3513610363006592</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2188402265310287</v>
+        <v>0.3648352921009064</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.3631352186203003</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.2720295488834381</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3648352921009064</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1979927271604538</v>
+        <v>0.4216426014900208</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4216426014900208</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.2568099200725555</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3215474188327789</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01293550804257393</v>
+        <v>0.3909564912319183</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.3909564912319183</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.2657264769077301</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.343317061662674</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2897872924804688</v>
+        <v>0.365862101316452</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.365862101316452</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2715255916118622</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.3626122176647186</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2699559330940247</v>
+        <v>0.3939701318740845</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.3255455195903778</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.2804843187332153</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.3939701318740845</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>0.210710421204567</v>
+        <v>0.3946175575256348</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.3242782652378082</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.2811042368412018</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.3946175575256348</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2456325143575668</v>
+        <v>0.387684553861618</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3355788886547089</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.2767366468906403</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.387684553861618</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1673,16 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.269225686788559</v>
+        <v>0.9374885559082031</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9374885559082031</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.03617828711867332</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.02633317932486534</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1693,16 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2437815219163895</v>
+        <v>0.9564048647880554</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9564048647880554</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.02595535479485989</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01763972081243992</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1713,16 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.260773092508316</v>
+        <v>0.9727460741996765</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9727460741996765</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01677671633660793</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.01047723647207022</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1733,16 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2777315378189087</v>
+        <v>0.963755190372467</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.963755190372467</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.02185149677097797</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0143933491781354</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1753,16 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05363835394382477</v>
+        <v>0.95493483543396</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.95493483543396</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.02675283513963223</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01831231638789177</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1773,16 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0401313342154026</v>
+        <v>0.9562394618988037</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9562394618988037</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.02603080496191978</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.01772970147430897</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1793,16 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07073209434747696</v>
+        <v>0.9385362863540649</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9385362863540649</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.03562287986278534</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.02584085986018181</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1813,16 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04119530320167542</v>
+        <v>0.7686675190925598</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.7686675190925598</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1185707822442055</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1127617135643959</v>
       </c>
     </row>
     <row r="70">
@@ -1206,106 +1833,196 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06187446415424347</v>
+        <v>0.7962084412574768</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.7962084412574768</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1059420332312584</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.09784951061010361</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09852007031440735</v>
+        <v>0.3688981235027313</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.3575509488582611</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.2735508978366852</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.3688981235027313</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09873189032077789</v>
+        <v>0.3963363170623779</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.3963363170623779</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.2642973959445953</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.3393663167953491</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1614255309104919</v>
+        <v>0.4819583892822266</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4819583892822266</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.2364030182361603</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.2816386222839355</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2059096843004227</v>
+        <v>0.695615291595459</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.695615291595459</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.1510778814554214</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.153306782245636</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1298041492700577</v>
+        <v>0.8205107450485229</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8205107450485229</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.09457922726869583</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.08491004258394241</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1017431542277336</v>
+        <v>0.8559848666191101</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8559848666191101</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.07750832289457321</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.06650681048631668</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.02252169884741306</v>
+        <v>0.8929733633995056</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8929733633995056</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.05916940793395042</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0478571280837059</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01679143309593201</v>
+        <v>0.9226510524749756</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9226510524749756</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.04396304860711098</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.03338577225804329</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03705660998821259</v>
+        <v>0.807788074016571</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.807788074016571</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.1005104780197144</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.09170135110616684</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +2033,16 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1157988309860229</v>
+        <v>0.9801196455955505</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9801196455955505</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0124215567484498</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.007458831649273634</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +2053,16 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2082330584526062</v>
+        <v>0.9800154566764832</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9800154566764832</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.01251811441034079</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.007466400042176247</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +2073,16 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2516114711761475</v>
+        <v>0.9718733429908752</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9718733429908752</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.01719401404261589</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.01093267276883125</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +2090,19 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3025907874107361</v>
+        <v>0.9843342900276184</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9843342900276184</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.009985411539673805</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.005680248606950045</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +2113,16 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2806733548641205</v>
+        <v>0.9879956841468811</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9879956841468811</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.007791334763169289</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.004212917760014534</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +2133,16 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2729407250881195</v>
+        <v>0.9478861689567566</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9478861689567566</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.03054509125649929</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.02156868763267994</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +2153,16 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2413311004638672</v>
+        <v>0.9423890113830566</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9423890113830566</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.03342051431536674</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.02419053390622139</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +2173,16 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02119657211005688</v>
+        <v>0.9431090354919434</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9431090354919434</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.03296617418527603</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.02392473444342613</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +2193,16 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.006082597188651562</v>
+        <v>0.986312210559845</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.986312210559845</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.008800084702670574</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.004887747578322887</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +2213,16 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2502770721912384</v>
+        <v>0.9916214942932129</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9916214942932129</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.005558064207434654</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.002820496214553714</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +2230,19 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.321917861700058</v>
+        <v>0.9923567771911621</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9923567771911621</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.005093851592391729</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.002549440832808614</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +2253,16 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1682362854480743</v>
+        <v>0.9835273623466492</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9835273623466492</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.01046940870583057</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0060031833127141</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +2273,16 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.09960945695638657</v>
+        <v>0.9741040468215942</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9741040468215942</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01598803885281086</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.00990789383649826</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +2293,16 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.08758153766393661</v>
+        <v>0.9089992046356201</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.9089992046356201</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.05104982480406761</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.03995107486844063</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +2313,16 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.08556089550256729</v>
+        <v>0.8660262227058411</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8660262227058411</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0726320818066597</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.06134167686104774</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +2333,16 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1138565018773079</v>
+        <v>0.9080927968025208</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9080927968025208</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.05136390030384064</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.04054326936602592</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +2353,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1668254286050797</v>
+        <v>0.9652070999145508</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9652070999145508</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.02094973996281624</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.01384314335882664</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +2373,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1625968515872955</v>
+        <v>0.9580425620079041</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9580425620079041</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.02492406032979488</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.01703337579965591</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +2393,16 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.182009369134903</v>
+        <v>0.9744969606399536</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.9744969606399536</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.01576493680477142</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.009738140739500523</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +2413,16 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1595935225486755</v>
+        <v>0.9916195869445801</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9916195869445801</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.005568723659962416</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.002811609534546733</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +2433,16 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2230765968561172</v>
+        <v>0.9927873015403748</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.9927873015403748</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.004835764411836863</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.002376972464844584</v>
       </c>
     </row>
     <row r="101">
@@ -1547,150 +2453,276 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1260701417922974</v>
+        <v>0.9927006959915161</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9927006959915161</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.004890618845820427</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.002408727072179317</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3758924901485443</v>
+        <v>0.9665631055831909</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9665631055831909</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.02024983242154121</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.013187101110816</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4206041097640991</v>
+        <v>0.9466928243637085</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.9466928243637085</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.03107084706425667</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.02223634719848633</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4062342941761017</v>
+        <v>0.9135756492614746</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9135756492614746</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.04845741763710976</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.03796692937612534</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3733584880828857</v>
+        <v>0.9602817893028259</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9602817893028259</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.02359097264707088</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.01612715236842632</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4107532501220703</v>
+        <v>0.9822198152542114</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.9822198152542114</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.01117158308625221</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.006608608644455671</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4163398146629333</v>
+        <v>0.9781640768051147</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9781640768051147</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.01352469250559807</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.008311241865158081</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.418042778968811</v>
+        <v>0.9731887578964233</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.9731887578964233</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.01647307723760605</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.01033820677548647</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4288762211799622</v>
+        <v>0.9865625500679016</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9865625500679016</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.008667768910527229</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.004769690334796906</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4618553221225739</v>
+        <v>0.9811385273933411</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9811385273933411</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.01191613916307688</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.006945397239178419</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4628526568412781</v>
+        <v>0.9695788621902466</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9695788621902466</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01858347654342651</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.01183764450252056</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.463093638420105</v>
+        <v>0.9826108813285828</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.9826108813285828</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.01103641837835312</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.006352645810693502</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4445433616638184</v>
+        <v>0.9628916382789612</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.9628916382789612</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.02234196849167347</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.01476638577878475</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4022348523139954</v>
+        <v>0.8678586483001709</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.8678586483001709</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.07172763347625732</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.06041373685002327</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +2733,16 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04486769810318947</v>
+        <v>0.8945335149765015</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8945335149765015</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.05851083993911743</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.04695563018321991</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +2753,16 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.05326631665229797</v>
+        <v>0.9220309257507324</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.9220309257507324</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.04437456279993057</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.03359453752636909</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +2773,16 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.02651081420481205</v>
+        <v>0.936760425567627</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.936760425567627</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.0365610383450985</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.02667848579585552</v>
       </c>
     </row>
     <row r="118">
@@ -1734,238 +2793,256 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01715597696602345</v>
+        <v>0.927542507648468</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.927542507648468</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.04137556999921799</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.03108186461031437</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01490725204348564</v>
+        <v>0.5638229250907898</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5638229250907898</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.2054205387830734</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.230756476521492</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1888440400362015</v>
+        <v>0.4090481400489807</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4090481400489807</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.2604550719261169</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.33049675822258</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1003443971276283</v>
+        <v>0.4704124331474304</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4704124331474304</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.2409269958734512</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2886605262756348</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2202661037445068</v>
+        <v>0.5531672835350037</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.5531672835350037</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2098776400089264</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2369550615549088</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0144603094086051</v>
+        <v>0.6282450556755066</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.6282450556755066</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.1793855726718903</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1923694312572479</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01864242553710938</v>
+        <v>0.5384925007820129</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5384925007820129</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2155079692602158</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2459995746612549</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.02664083242416382</v>
+        <v>0.4144733548164368</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4144733548164368</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.2591865062713623</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.3263401687145233</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1124173998832703</v>
+        <v>0.5960851311683655</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5960851311683655</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.1926578432321548</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.2112570255994797</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.07631251960992813</v>
+        <v>0.4716881513595581</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4716881513595581</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.2403393238782883</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.28797248005867</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4546854496002197</v>
+        <v>0.4631315767765045</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4631315767765045</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.2432322204113007</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.2936362028121948</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.44863361120224</v>
+        <v>0.4058389365673065</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4058389365673065</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.2618438899517059</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.3323171734809875</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4573538601398468</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.4507770836353302</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.4449712038040161</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.4488073587417603</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.4187117218971252</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.2205629199743271</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.1627701222896576</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.2015214264392853</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.2358222007751465</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.3457100093364716</v>
+        <v>0.3927163183689117</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.3260466754436493</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.281237006187439</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.3927163183689117</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,1220 +449,665 @@
           <t>Confidence</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>class_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>class_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>class_2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9641340970993042</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9641340970993042</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02157380245625973</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01429215352982283</v>
+        <v>0.2381611466407776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9400603771209717</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9400603771209717</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03471526876091957</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02522433921694756</v>
+        <v>0.1787420362234116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9590908885002136</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9590908885002136</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02442021295428276</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01648890413343906</v>
+        <v>0.1670990735292435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9494917988777161</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9494917988777161</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0296921543776989</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02081616222858429</v>
+        <v>0.1998955905437469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9405920505523682</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9405920505523682</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03450062125921249</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02490724064409733</v>
+        <v>0.1901446431875229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6927834153175354</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.6927834153175354</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1522987335920334</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1549178510904312</v>
+        <v>0.2176174372434616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6918555498123169</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.6918555498123169</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1527604311704636</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1553840190172195</v>
+        <v>0.1806866824626923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7683541774749756</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7683541774749756</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1186829954385757</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1129628643393517</v>
+        <v>0.2380498945713043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5282899141311646</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5282899141311646</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2195630520582199</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.2521470487117767</v>
+        <v>0.233338475227356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6409177184104919</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.6409177184104919</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1744872480630875</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.184595063328743</v>
+        <v>0.2632879316806793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5469107627868652</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5469107627868652</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2126307189464569</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.2404585331678391</v>
+        <v>0.267630010843277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8481502532958984</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8481502532958984</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.08125331997871399</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.07059645652770996</v>
+        <v>0.2703481614589691</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8458606600761414</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8458606600761414</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.08238697797060013</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.07175233215093613</v>
+        <v>0.2591722309589386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8349931836128235</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8349931836128235</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0876658633351326</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.07734091579914093</v>
+        <v>0.2866141200065613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.78158038854599</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.78158038854599</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.112659715116024</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1057598441839218</v>
+        <v>0.2840158939361572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5157343745231628</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5157343745231628</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.2242724299430847</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2599932253360748</v>
+        <v>0.329104870557785</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4759810268878937</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4759810268878937</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.2388155460357666</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2852034568786621</v>
+        <v>0.3149282336235046</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3857967555522919</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3857967555522919</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.2675633430480957</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3466399013996124</v>
+        <v>0.2867178618907928</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4325667917728424</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.4325667917728424</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2538925111293793</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.3135406374931335</v>
+        <v>0.3245745003223419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3878745436668396</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3878745436668396</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.2666596174240112</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3454658389091492</v>
+        <v>0.2630676925182343</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7600338459014893</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.7600338459014893</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1223653852939606</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1176008284091949</v>
+        <v>0.2354423701763153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9410508275032043</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9410508275032043</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03420691937208176</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.02474225871264935</v>
+        <v>0.2352105975151062</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8534215092658997</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8534215092658997</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.07857031375169754</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.06800814718008041</v>
+        <v>0.2326998710632324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8842275738716125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8842275738716125</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0634438544511795</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.05232854187488556</v>
+        <v>0.2328511476516724</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8615639805793762</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8615639805793762</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.07465659826993942</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.06377942115068436</v>
+        <v>0.250992476940155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5125349760055542</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5125349760055542</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.2256894260644913</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.2617755234241486</v>
+        <v>0.2467264086008072</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9511287212371826</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.9511287212371826</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.0287306122481823</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.02014066465198994</v>
+        <v>0.2920398712158203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9632681608200073</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.9632681608200073</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.02206762880086899</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.01466415822505951</v>
+        <v>0.2850879430770874</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.907492458820343</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.907492458820343</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.05161852762103081</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.04088909551501274</v>
+        <v>0.2998711168766022</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9433377385139465</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9433377385139465</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.03295242786407471</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.02370978333055973</v>
+        <v>0.215909019112587</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9734699726104736</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.9734699726104736</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.01631926745176315</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.01021069567650557</v>
+        <v>0.1847217679023743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9664977788925171</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9664977788925171</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.02027506753802299</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.01322717405855656</v>
+        <v>0.2078933864831924</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9000018835067749</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9000018835067749</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.05553831905126572</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.04445970058441162</v>
+        <v>0.2065069973468781</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8766375780105591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.8766375780105591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.06724230945110321</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.05612005293369293</v>
+        <v>0.2093569338321686</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.897462010383606</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.897462010383606</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.05681666731834412</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.04572133719921112</v>
+        <v>0.2756026089191437</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8881962895393372</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.8881962895393372</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.06149375811219215</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.05031000077724457</v>
+        <v>0.1479359865188599</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7877683043479919</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.7877683043479919</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.109678640961647</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.1025531217455864</v>
+        <v>0.1436859518289566</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5624062418937683</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5624062418937683</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.2062541097402573</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.2313396632671356</v>
+        <v>0.1709278374910355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4159656465053558</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.4159656465053558</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2592898309230804</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3247445523738861</v>
+        <v>0.1663774102926254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9142559170722961</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9142559170722961</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.04832050949335098</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.03742358833551407</v>
+        <v>0.1600279957056046</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9716556072235107</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9716556072235107</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.01738917082548141</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.01095524337142706</v>
+        <v>0.1752427816390991</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7093042135238647</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.7093042135238647</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.1450544893741608</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.1456413716077805</v>
+        <v>0.2059743702411652</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9352890849113464</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9352890849113464</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.03733804449439049</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.02737278863787651</v>
+        <v>0.2060620039701462</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9818509817123413</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9818509817123413</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.01147172879427671</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.006677203811705112</v>
+        <v>0.204648345708847</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.967369556427002</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.967369556427002</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.01980874873697758</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.01282170042395592</v>
+        <v>0.2112762182950974</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9668976664543152</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9668976664543152</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.0200826320797205</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.01301965676248074</v>
+        <v>0.2347871065139771</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9176446199417114</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.9176446199417114</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.04654693976044655</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.03580843284726143</v>
+        <v>0.2617416977882385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8120815753936768</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.8120815753936768</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.09842527657747269</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.08949309587478638</v>
+        <v>0.2781640589237213</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6609172821044922</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.6609172821044922</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.1657746434211731</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1733080744743347</v>
+        <v>0.3432162702083588</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4564203023910522</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4564203023910522</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.2452927827835083</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2982869446277618</v>
+        <v>0.2900806069374084</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5838582515716553</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5838582515716553</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.1972757279872894</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.2188660502433777</v>
+        <v>0.3090868890285492</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4460700750350952</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.4460700750350952</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.2484344244003296</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.30549556016922</v>
+        <v>0.3024193048477173</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3807396590709686</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.3807396590709686</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.2678993046283722</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.3513610363006592</v>
+        <v>0.3328604698181152</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3648352921009064</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.3631352186203003</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.2720295488834381</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.3648352921009064</v>
+        <v>0.2865410447120667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4216426014900208</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.4216426014900208</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.2568099200725555</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.3215474188327789</v>
+        <v>0.2838022112846375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3909564912319183</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.3909564912319183</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.2657264769077301</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.343317061662674</v>
+        <v>0.2811754941940308</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.365862101316452</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.365862101316452</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.2715255916118622</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.3626122176647186</v>
+        <v>0.3058517277240753</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3939701318740845</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.3255455195903778</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.2804843187332153</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.3939701318740845</v>
+        <v>0.3377606272697449</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3946175575256348</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.3242782652378082</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.2811042368412018</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.3946175575256348</v>
+        <v>0.2847247719764709</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.387684553861618</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.3355788886547089</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.2767366468906403</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.387684553861618</v>
+        <v>0.2690600156784058</v>
       </c>
     </row>
     <row r="62">
@@ -1673,16 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9374885559082031</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9374885559082031</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.03617828711867332</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.02633317932486534</v>
+        <v>0.2388896495103836</v>
       </c>
     </row>
     <row r="63">
@@ -1693,16 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9564048647880554</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9564048647880554</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.02595535479485989</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.01763972081243992</v>
+        <v>0.2653325200080872</v>
       </c>
     </row>
     <row r="64">
@@ -1713,16 +1140,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9727460741996765</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9727460741996765</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.01677671633660793</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.01047723647207022</v>
+        <v>0.2902161478996277</v>
       </c>
     </row>
     <row r="65">
@@ -1733,16 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.963755190372467</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.963755190372467</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.02185149677097797</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.0143933491781354</v>
+        <v>0.2721323668956757</v>
       </c>
     </row>
     <row r="66">
@@ -1753,16 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.95493483543396</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.95493483543396</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.02675283513963223</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.01831231638789177</v>
+        <v>0.2728770077228546</v>
       </c>
     </row>
     <row r="67">
@@ -1773,16 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9562394618988037</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9562394618988037</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.02603080496191978</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.01772970147430897</v>
+        <v>0.2855453491210938</v>
       </c>
     </row>
     <row r="68">
@@ -1793,16 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9385362863540649</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9385362863540649</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.03562287986278534</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.02584085986018181</v>
+        <v>0.2911399900913239</v>
       </c>
     </row>
     <row r="69">
@@ -1813,16 +1195,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7686675190925598</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.7686675190925598</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.1185707822442055</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.1127617135643959</v>
+        <v>0.2712695002555847</v>
       </c>
     </row>
     <row r="70">
@@ -1833,196 +1206,106 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7962084412574768</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.7962084412574768</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.1059420332312584</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.09784951061010361</v>
+        <v>0.2747787833213806</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3688981235027313</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.3575509488582611</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.2735508978366852</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.3688981235027313</v>
+        <v>0.2665007710456848</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3963363170623779</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.3963363170623779</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.2642973959445953</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.3393663167953491</v>
+        <v>0.1918675750494003</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4819583892822266</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.4819583892822266</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.2364030182361603</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.2816386222839355</v>
+        <v>0.1737677901983261</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.695615291595459</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.695615291595459</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.1510778814554214</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.153306782245636</v>
+        <v>0.1479853838682175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8205107450485229</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.8205107450485229</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.09457922726869583</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.08491004258394241</v>
+        <v>0.1789795756340027</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8559848666191101</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.8559848666191101</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.07750832289457321</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.06650681048631668</v>
+        <v>0.1836605817079544</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8929733633995056</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.8929733633995056</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.05916940793395042</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0478571280837059</v>
+        <v>0.1925239711999893</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9226510524749756</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9226510524749756</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.04396304860711098</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.03338577225804329</v>
+        <v>0.1849002838134766</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.807788074016571</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.807788074016571</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.1005104780197144</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.09170135110616684</v>
+        <v>0.1963022649288177</v>
       </c>
     </row>
     <row r="80">
@@ -2033,16 +1316,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9801196455955505</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9801196455955505</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.0124215567484498</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.007458831649273634</v>
+        <v>0.2002702206373215</v>
       </c>
     </row>
     <row r="81">
@@ -2053,16 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9800154566764832</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9800154566764832</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.01251811441034079</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.007466400042176247</v>
+        <v>0.1829532980918884</v>
       </c>
     </row>
     <row r="82">
@@ -2073,16 +1338,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9718733429908752</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.9718733429908752</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.01719401404261589</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.01093267276883125</v>
+        <v>0.2174079418182373</v>
       </c>
     </row>
     <row r="83">
@@ -2093,16 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9843342900276184</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.9843342900276184</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.009985411539673805</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.005680248606950045</v>
+        <v>0.2201119661331177</v>
       </c>
     </row>
     <row r="84">
@@ -2113,16 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9879956841468811</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.9879956841468811</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.007791334763169289</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.004212917760014534</v>
+        <v>0.2117030024528503</v>
       </c>
     </row>
     <row r="85">
@@ -2133,16 +1371,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9478861689567566</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.9478861689567566</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.03054509125649929</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.02156868763267994</v>
+        <v>0.1800681352615356</v>
       </c>
     </row>
     <row r="86">
@@ -2153,16 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9423890113830566</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.9423890113830566</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.03342051431536674</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.02419053390622139</v>
+        <v>0.1816184669733047</v>
       </c>
     </row>
     <row r="87">
@@ -2173,16 +1393,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9431090354919434</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.9431090354919434</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.03296617418527603</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.02392473444342613</v>
+        <v>0.2291494756937027</v>
       </c>
     </row>
     <row r="88">
@@ -2193,16 +1404,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.986312210559845</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.986312210559845</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.008800084702670574</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.004887747578322887</v>
+        <v>0.2050115913152695</v>
       </c>
     </row>
     <row r="89">
@@ -2213,16 +1415,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9916214942932129</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.9916214942932129</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.005558064207434654</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.002820496214553714</v>
+        <v>0.2024649381637573</v>
       </c>
     </row>
     <row r="90">
@@ -2233,16 +1426,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9923567771911621</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.9923567771911621</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.005093851592391729</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.002549440832808614</v>
+        <v>0.2179196774959564</v>
       </c>
     </row>
     <row r="91">
@@ -2253,16 +1437,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9835273623466492</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.9835273623466492</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.01046940870583057</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.0060031833127141</v>
+        <v>0.2412390112876892</v>
       </c>
     </row>
     <row r="92">
@@ -2273,16 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9741040468215942</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.9741040468215942</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.01598803885281086</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.00990789383649826</v>
+        <v>0.2399351000785828</v>
       </c>
     </row>
     <row r="93">
@@ -2293,16 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9089992046356201</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.9089992046356201</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.05104982480406761</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.03995107486844063</v>
+        <v>0.1864273548126221</v>
       </c>
     </row>
     <row r="94">
@@ -2313,16 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8660262227058411</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.8660262227058411</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.0726320818066597</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.06134167686104774</v>
+        <v>0.2245163917541504</v>
       </c>
     </row>
     <row r="95">
@@ -2333,16 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9080927968025208</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.9080927968025208</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.05136390030384064</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.04054326936602592</v>
+        <v>0.2291391640901566</v>
       </c>
     </row>
     <row r="96">
@@ -2353,16 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9652070999145508</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.9652070999145508</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.02094973996281624</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.01384314335882664</v>
+        <v>0.1873904466629028</v>
       </c>
     </row>
     <row r="97">
@@ -2373,16 +1503,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9580425620079041</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.9580425620079041</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.02492406032979488</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.01703337579965591</v>
+        <v>0.2067117542028427</v>
       </c>
     </row>
     <row r="98">
@@ -2390,19 +1511,10 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9744969606399536</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9744969606399536</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.01576493680477142</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.009738140739500523</v>
+        <v>0.3241853713989258</v>
       </c>
     </row>
     <row r="99">
@@ -2413,16 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9916195869445801</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9916195869445801</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.005568723659962416</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.002811609534546733</v>
+        <v>0.2102421075105667</v>
       </c>
     </row>
     <row r="100">
@@ -2433,16 +1536,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9927873015403748</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.9927873015403748</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.004835764411836863</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.002376972464844584</v>
+        <v>0.2318217903375626</v>
       </c>
     </row>
     <row r="101">
@@ -2453,16 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9927006959915161</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.9927006959915161</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.004890618845820427</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.002408727072179317</v>
+        <v>0.2403066158294678</v>
       </c>
     </row>
     <row r="102">
@@ -2473,16 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9665631055831909</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.9665631055831909</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.02024983242154121</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.013187101110816</v>
+        <v>0.2399089932441711</v>
       </c>
     </row>
     <row r="103">
@@ -2493,16 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9466928243637085</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.9466928243637085</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.03107084706425667</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.02223634719848633</v>
+        <v>0.2295450270175934</v>
       </c>
     </row>
     <row r="104">
@@ -2513,16 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9135756492614746</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.9135756492614746</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.04845741763710976</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.03796692937612534</v>
+        <v>0.2405727505683899</v>
       </c>
     </row>
     <row r="105">
@@ -2533,16 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9602817893028259</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.9602817893028259</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.02359097264707088</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.01612715236842632</v>
+        <v>0.24461829662323</v>
       </c>
     </row>
     <row r="106">
@@ -2553,16 +1602,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9822198152542114</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9822198152542114</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.01117158308625221</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.006608608644455671</v>
+        <v>0.2224791795015335</v>
       </c>
     </row>
     <row r="107">
@@ -2573,16 +1613,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9781640768051147</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9781640768051147</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.01352469250559807</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.008311241865158081</v>
+        <v>0.2433880269527435</v>
       </c>
     </row>
     <row r="108">
@@ -2593,16 +1624,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9731887578964233</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9731887578964233</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.01647307723760605</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.01033820677548647</v>
+        <v>0.24950310587883</v>
       </c>
     </row>
     <row r="109">
@@ -2613,16 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9865625500679016</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9865625500679016</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.008667768910527229</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.004769690334796906</v>
+        <v>0.2988097369670868</v>
       </c>
     </row>
     <row r="110">
@@ -2633,16 +1646,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9811385273933411</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9811385273933411</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.01191613916307688</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.006945397239178419</v>
+        <v>0.1433841437101364</v>
       </c>
     </row>
     <row r="111">
@@ -2653,16 +1657,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9695788621902466</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9695788621902466</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.01858347654342651</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.01183764450252056</v>
+        <v>0.1670248061418533</v>
       </c>
     </row>
     <row r="112">
@@ -2673,16 +1668,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9826108813285828</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9826108813285828</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.01103641837835312</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.006352645810693502</v>
+        <v>0.1804302483797073</v>
       </c>
     </row>
     <row r="113">
@@ -2693,16 +1679,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9628916382789612</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9628916382789612</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.02234196849167347</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.01476638577878475</v>
+        <v>0.1787750273942947</v>
       </c>
     </row>
     <row r="114">
@@ -2713,16 +1690,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8678586483001709</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.8678586483001709</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.07172763347625732</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.06041373685002327</v>
+        <v>0.1716841161251068</v>
       </c>
     </row>
     <row r="115">
@@ -2733,16 +1701,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8945335149765015</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.8945335149765015</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.05851083993911743</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.04695563018321991</v>
+        <v>0.1638062596321106</v>
       </c>
     </row>
     <row r="116">
@@ -2753,16 +1712,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9220309257507324</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9220309257507324</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.04437456279993057</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.03359453752636909</v>
+        <v>0.1949034333229065</v>
       </c>
     </row>
     <row r="117">
@@ -2773,16 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.936760425567627</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.936760425567627</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.0365610383450985</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.02667848579585552</v>
+        <v>0.1934078484773636</v>
       </c>
     </row>
     <row r="118">
@@ -2793,256 +1734,403 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.927542507648468</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.927542507648468</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.04137556999921799</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.03108186461031437</v>
+        <v>0.2255610972642899</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5638229250907898</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.5638229250907898</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.2054205387830734</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.230756476521492</v>
+        <v>0.2226466983556747</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4090481400489807</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.4090481400489807</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.2604550719261169</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.33049675822258</v>
+        <v>0.2166190147399902</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4704124331474304</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.4704124331474304</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.2409269958734512</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.2886605262756348</v>
+        <v>0.2742612957954407</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5531672835350037</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.5531672835350037</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.2098776400089264</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.2369550615549088</v>
+        <v>0.255401223897934</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6282450556755066</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.6282450556755066</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.1793855726718903</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.1923694312572479</v>
+        <v>0.2767384350299835</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5384925007820129</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.5384925007820129</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.2155079692602158</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.2459995746612549</v>
+        <v>0.2475635558366776</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4144733548164368</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.4144733548164368</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.2591865062713623</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.3263401687145233</v>
+        <v>0.250551164150238</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5960851311683655</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.5960851311683655</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.1926578432321548</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.2112570255994797</v>
+        <v>0.249022364616394</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.4716881513595581</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.4716881513595581</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.2403393238782883</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.28797248005867</v>
+        <v>0.2319845259189606</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4631315767765045</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.4631315767765045</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.2432322204113007</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.2936362028121948</v>
+        <v>0.263652503490448</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0.4058389365673065</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.4058389365673065</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.2618438899517059</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.3323171734809875</v>
+        <v>0.2748886346817017</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3927163183689117</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.3260466754436493</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.281237006187439</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.3927163183689117</v>
+        <v>0.2624746263027191</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.2701574563980103</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2955268323421478</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2910527884960175</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.2334237694740295</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.2364491820335388</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.2861479818820953</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.2746149599552155</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.2777868509292603</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.2663631439208984</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2583484351634979</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2406353503465652</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2551130652427673</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2794508635997772</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.2909943163394928</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.2944423258304596</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.2853884696960449</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2816774845123291</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.2916271984577179</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.2839883863925934</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.2834880352020264</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.2799760699272156</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.2706081569194794</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2615512013435364</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.2731585502624512</v>
       </c>
     </row>
   </sheetData>
